--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="선택창" sheetId="1" r:id="rId1"/>
+    <sheet name="특수 스킬 리스트" sheetId="2" r:id="rId2"/>
+    <sheet name="캐릭터 정보" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,11 +44,17 @@
   <connection id="9" name="schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="10" name="특수 스킬" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="270">
   <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Warrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,9 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특수스킬명</t>
-  </si>
-  <si>
     <t>천공가르기</t>
   </si>
   <si>
@@ -970,6 +969,138 @@
   </si>
   <si>
     <t>헌혈시간입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해감소율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,8 +1222,36 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema4">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="SkillDatabase">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="list" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="SkillInfo" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillType" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:boolean" name="canUse" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="10" Name="HeroDatabase_맵" RootElement="HeroDatabase" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="12" Name="SkillDatabase_맵" RootElement="SkillDatabase" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -1115,6 +1274,24 @@
     </tableColumn>
     <tableColumn id="5" uniqueName="canUse" name="사용 가능 여부" dataDxfId="0">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/canUse" xmlDataType="boolean"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="11">
+  <autoFilter ref="A1:C58"/>
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="name" name="SkillName">
+      <xmlColumnPr mapId="12" xpath="/SkillDatabase/list/SkillInfo/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="skillType" name="SkillType">
+      <xmlColumnPr mapId="12" xpath="/SkillDatabase/list/SkillInfo/skillType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="canUse" name="CanUse">
+      <xmlColumnPr mapId="12" xpath="/SkillDatabase/list/SkillInfo/canUse" xmlDataType="boolean"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1410,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3562,488 +3739,768 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B49" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="B54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="B56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" t="s">
-        <v>238</v>
+      <c r="C58" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="26" width="11" customWidth="1"/>
+    <col min="27" max="27" width="10.625" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" t="s">
+        <v>256</v>
+      </c>
+      <c r="U1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V1" t="s">
+        <v>258</v>
+      </c>
+      <c r="W1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -44,17 +44,26 @@
   <connection id="9" name="schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="특수 스킬" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="Status_Data" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" name="Status_Data1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="12" name="Status_Data2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="13" name="특수 스킬" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="294">
   <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,123 +993,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해감소율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SkillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흡혈율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법저항력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해감소율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉백저항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간가속율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션가속율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리관통력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법관통력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반지ID</t>
+    <t>leon6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leonWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mue6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mueWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hikari6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히카리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hikariWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검의부름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징벌의화신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자애의혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의속삭임(뮤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹독바르기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,21 +1229,66 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1147,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1306,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,11 +1415,66 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="StatusDatabase">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="list" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StatusInfo" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="rare" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="weaponId" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ringId" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="blockSkill" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spSkill" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="hp" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sp" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="atk" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="crit" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="critMulti" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="phyPenetration" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="magicPenetration" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atkSpeed" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hpDrain" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="acc" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="minRange" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxRange" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="phyArmor" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="magicArmor" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="dmgReduce" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="evade" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="knockRegist" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="moveSpeed" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="timeMulti" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="motionAccelMulti" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sacleMulti" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="10" Name="HeroDatabase_맵" RootElement="HeroDatabase" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="SkillDatabase_맵" RootElement="SkillDatabase" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="14" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="15" Name="StatusDatabase_맵" RootElement="StatusDatabase" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -1281,7 +1504,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="14">
   <autoFilter ref="A1:C58"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="SkillName">
@@ -1292,6 +1515,105 @@
     </tableColumn>
     <tableColumn id="3" uniqueName="canUse" name="CanUse">
       <xmlColumnPr mapId="12" xpath="/SkillDatabase/list/SkillInfo/canUse" xmlDataType="boolean"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="12">
+  <autoFilter ref="A1:AD4"/>
+  <tableColumns count="30">
+    <tableColumn id="1" uniqueName="id" name="ID">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="name" name="Name">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="class" name="Class">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="level" name="Lv">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/level" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="rare" name="Rare">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/rare" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="weaponId" name="무기ID">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/weaponId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="ringId" name="반지ID">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/ringId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="blockSkill" name="블록스킬">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/blockSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="spSkill" name="특수스킬">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/spSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="hp" name="체력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/hp" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="sp" name="SP">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/sp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="atk" name="공격력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/atk" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="crit" name="치명타율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/crit" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="critMulti" name="치명타배율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/critMulti" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="phyPenetration" name="물리관통력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/phyPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="magicPenetration" name="마법관통력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/magicPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="atkSpeed" name="공격속도">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/atkSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="hpDrain" name="흡혈율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/hpDrain" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="acc" name="명중률">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/acc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="minRange" name="최소사거리">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/minRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="maxRange" name="최대사거리">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/maxRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="phyArmor" name="물리방어력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/phyArmor" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="magicArmor" name="마법저항력">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/magicArmor" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="dmgReduce" name="피해감소율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/dmgReduce" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="evade" name="회피율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/evade" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="knockRegist" name="넉백저항">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/knockRegist" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="moveSpeed" name="이동속도">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/moveSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="timeMulti" name="시간가속율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/timeMulti" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="motionAccelMulti" name="모션가속율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/motionAccelMulti" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="sacleMulti" name="크기배율">
+      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/sacleMulti" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3741,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3754,7 +4076,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>239</v>
@@ -4381,7 +4703,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>237</v>
@@ -4401,107 +4723,414 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="10.625" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="17" width="11" customWidth="1"/>
+    <col min="18" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="25" width="11" customWidth="1"/>
+    <col min="26" max="27" width="11.625" customWidth="1"/>
+    <col min="28" max="29" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
         <v>242</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" t="s">
-        <v>265</v>
-      </c>
-      <c r="S1" t="s">
-        <v>264</v>
-      </c>
-      <c r="T1" t="s">
-        <v>256</v>
-      </c>
-      <c r="U1" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Y1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="AB1" t="s">
-        <v>263</v>
-      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12194.4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>100</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1143.9000000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>15</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="W2" s="4">
+        <v>165.7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9898.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>100</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1008.9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>105</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>15</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>3</v>
+      </c>
+      <c r="V3" s="5">
+        <v>564.6</v>
+      </c>
+      <c r="W3" s="5">
+        <v>464.6</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8592.4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1406.8</v>
+      </c>
+      <c r="M4" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <v>115</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>16</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>5</v>
+      </c>
+      <c r="V4" s="4">
+        <v>347.7</v>
+      </c>
+      <c r="W4" s="4">
+        <v>347.7</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -53,10 +53,13 @@
   <connection id="12" name="Status_Data2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="특수 스킬" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="Status_Data3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="14" name="특수 스킬" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1415,50 +1418,44 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema5">
+  <Schema ID="Schema6">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="StatusDatabase">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" nillable="true" name="list" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StatusInfo" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StatusInfo" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:sequence minOccurs="0">
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="rare" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="weaponId" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ringId" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="blockSkill" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spSkill" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="hp" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sp" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="atk" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="crit" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="critMulti" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="phyPenetration" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="magicPenetration" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atkSpeed" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hpDrain" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="acc" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="minRange" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxRange" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="phyArmor" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="magicArmor" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="dmgReduce" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="evade" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="knockRegist" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="moveSpeed" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="timeMulti" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="motionAccelMulti" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sacleMulti" form="unqualified"/>
-                      </xsd:sequence>
-                    </xsd:complexType>
-                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="rare" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="weaponId" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ringId" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="blockSkill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spSkill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="hp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="atk" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="crit" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="critMulti" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="phyPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="magicPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="atkSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hpDrain" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="acc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="minRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="phyArmor" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="magicArmor" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="dmgReduce" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="evade" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="knockRegist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="moveSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="timeMulti" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="motionAccelMulti" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sacleMulti" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -1471,10 +1468,10 @@
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="SkillDatabase_맵" RootElement="SkillDatabase" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="14" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="15" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="15" Name="StatusDatabase_맵" RootElement="StatusDatabase" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
+  <Map ID="16" Name="StatusDatabase_맵" RootElement="StatusDatabase" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="13" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -1504,7 +1501,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="15">
   <autoFilter ref="A1:C58"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="SkillName">
@@ -1522,98 +1519,98 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="13">
   <autoFilter ref="A1:AD4"/>
   <tableColumns count="30">
     <tableColumn id="1" uniqueName="id" name="ID">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/id" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="name" name="Name">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/name" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="class" name="Class">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/class" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/class" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="level" name="Lv">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="rare" name="Rare">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/rare" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/rare" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="weaponId" name="무기ID">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/weaponId" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/weaponId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="ringId" name="반지ID">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/ringId" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/ringId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="blockSkill" name="블록스킬">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/blockSkill" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/blockSkill" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="spSkill" name="특수스킬">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/spSkill" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/spSkill" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="hp" name="체력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/hp" xmlDataType="double"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/hp" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="sp" name="SP">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/sp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/sp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="atk" name="공격력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/atk" xmlDataType="double"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/atk" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="crit" name="치명타율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/crit" xmlDataType="double"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/crit" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="critMulti" name="치명타배율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/critMulti" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/critMulti" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="15" uniqueName="phyPenetration" name="물리관통력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/phyPenetration" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/phyPenetration" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="magicPenetration" name="마법관통력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/magicPenetration" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/magicPenetration" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" uniqueName="atkSpeed" name="공격속도">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/atkSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/atkSpeed" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="18" uniqueName="hpDrain" name="흡혈율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/hpDrain" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/hpDrain" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" uniqueName="acc" name="명중률">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/acc" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/acc" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="20" uniqueName="minRange" name="최소사거리">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/minRange" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/minRange" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="21" uniqueName="maxRange" name="최대사거리">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/maxRange" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/maxRange" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="22" uniqueName="phyArmor" name="물리방어력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/phyArmor" xmlDataType="double"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/phyArmor" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="23" uniqueName="magicArmor" name="마법저항력">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/magicArmor" xmlDataType="double"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/magicArmor" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="24" uniqueName="dmgReduce" name="피해감소율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/dmgReduce" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/dmgReduce" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="25" uniqueName="evade" name="회피율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/evade" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/evade" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="26" uniqueName="knockRegist" name="넉백저항">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/knockRegist" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/knockRegist" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="27" uniqueName="moveSpeed" name="이동속도">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/moveSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/moveSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="28" uniqueName="timeMulti" name="시간가속율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/timeMulti" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/timeMulti" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="29" uniqueName="motionAccelMulti" name="모션가속율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/motionAccelMulti" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/motionAccelMulti" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="30" uniqueName="sacleMulti" name="크기배율">
-      <xmlColumnPr mapId="15" xpath="/StatusDatabase/list/StatusInfo/sacleMulti" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/sacleMulti" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4725,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4738,7 +4735,7 @@
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="11" width="11" customWidth="1"/>
     <col min="12" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="17" width="11" customWidth="1"/>

--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="선택창" sheetId="1" r:id="rId1"/>
-    <sheet name="특수 스킬 리스트" sheetId="2" r:id="rId2"/>
-    <sheet name="캐릭터 정보" sheetId="3" r:id="rId3"/>
+    <sheet name="메모장" sheetId="5" r:id="rId1"/>
+    <sheet name="선택창" sheetId="1" r:id="rId2"/>
+    <sheet name="특수 스킬 리스트" sheetId="2" r:id="rId3"/>
+    <sheet name="캐릭터 정보" sheetId="3" r:id="rId4"/>
+    <sheet name="인게임데이터" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -38,35 +40,38 @@
   <connection id="7" name="Hero_Data6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Hero_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="schema" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="Ingame_Data" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Ingame_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="Status_Data" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="Status_Data" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="Status_Data1" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="Status_Data1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="Status_Data2" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="Status_Data2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="Status_Data3" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="Status_Data3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="특수 스킬" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="특수 스킬" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="15" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
+  <connection id="16" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="328">
   <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,6 +1214,142 @@
   </si>
   <si>
     <t>맹독바르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대SP포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소SP포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재SP포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해감소율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션가속율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 캐릭터 생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 캐릭터 소멸자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,14 +1605,74 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="HeroDatabase">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="HeroInfo" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="rare" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="weaponId" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ringId" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="blockSkill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spSkill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AttackPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CriticalRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CriticalMultiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PhysicalDefense" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MagicalDefense" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DamageReduceRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BloodSuckingRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PhysicalPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MagicalPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MoveSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="KnockbackResistance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TimeAccelerationRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MotionAccelerationRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ScaleMultiplier" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="10" Name="HeroDatabase_맵" RootElement="HeroDatabase" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
+  <Map ID="17" Name="HeroDatabase_맵1" RootElement="HeroDatabase" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
+  </Map>
   <Map ID="12" Name="SkillDatabase_맵" RootElement="SkillDatabase" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="15" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="16" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="16" Name="StatusDatabase_맵" RootElement="StatusDatabase" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="13" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="14" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -1501,7 +1702,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="16">
   <autoFilter ref="A1:C58"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="SkillName">
@@ -1519,7 +1720,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="14">
   <autoFilter ref="A1:AD4"/>
   <tableColumns count="30">
     <tableColumn id="1" uniqueName="id" name="ID">
@@ -1611,6 +1812,138 @@
     </tableColumn>
     <tableColumn id="30" uniqueName="sacleMulti" name="크기배율">
       <xmlColumnPr mapId="16" xpath="/StatusDatabase/StatusInfo/sacleMulti" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:AO4" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:AO4"/>
+  <tableColumns count="41">
+    <tableColumn id="1" uniqueName="id" name="ID">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="name" name="Name">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="class" name="Class">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="level" name="Lv">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/level" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="rare" name="Rare">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/rare" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="weaponId" name="무기ID">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/weaponId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="ringId" name="반지ID">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/ringId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="blockSkill" name="블록스킬">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/blockSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="spSkill" name="특수스킬">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/spSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="MaxHealth" name="최대 체력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxHealth" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="MinHealth" name="최소 체력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinHealth" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="CurrentHealth" name="현재 체력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentHealth" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="AttackPoint" name="공격력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/AttackPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="CriticalRate" name="치명타율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CriticalRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="CriticalMultiplier" name="치명타 배율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CriticalMultiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="MaxSpecialPoint" name="최대SP포인트">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxSpecialPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="MinSpecialPoint" name="최소SP포인트">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinSpecialPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="CurrentSpecialPoint" name="현재SP포인트">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentSpecialPoint" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="PhysicalDefense" name="물리방어력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/PhysicalDefense" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="MagicalDefense" name="마법저항력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MagicalDefense" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="DamageReduceRate" name="피해감소율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/DamageReduceRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="BloodSuckingRate" name="흡혈율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/BloodSuckingRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="MaxAccuracy" name="최대명중률">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxAccuracy" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="MinAccuracy" name="최소명중률">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinAccuracy" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="CurrentAccuracy" name="현재명중률">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentAccuracy" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="MaxEvasionRate" name="최대회피율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxEvasionRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="MinEvasionRate" name="최소회피율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinEvasionRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="CurrentEvasionRate" name="현재회피율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentEvasionRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="MaxRange" name="최대사거리">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxRange" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="MinRange" name="최소사거리">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinRange" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="CurrentRange" name="현재사거리">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentRange" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="MaxAttackSpeed" name="최대공격속도">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxAttackSpeed" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="MinAttackSpeed" name="최소공격속도">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinAttackSpeed" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="CurrentAttackSpeed" name="현재공격속도">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentAttackSpeed" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="PhysicalPenetration" name="물리관통력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/PhysicalPenetration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="MagicalPenetration" name="마법관통력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MagicalPenetration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="MoveSpeed" name="이동속도">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MoveSpeed" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="KnockbackResistance" name="넉백저항력">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/KnockbackResistance" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="TimeAccelerationRate" name="시간가속율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/TimeAccelerationRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="MotionAccelerationRate" name="모션가속율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MotionAccelerationRate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="41" uniqueName="ScaleMultiplier" name="크기배율">
+      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/ScaleMultiplier" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1904,6 +2237,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4056,7 +4415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -4718,12 +5077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5130,4 +5489,547 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="18" width="13.875" customWidth="1"/>
+    <col min="19" max="21" width="11.75" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="27" width="11.75" customWidth="1"/>
+    <col min="28" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.75" customWidth="1"/>
+    <col min="32" max="34" width="13.625" customWidth="1"/>
+    <col min="35" max="36" width="11.75" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="40" width="11.75" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" t="s">
+        <v>303</v>
+      </c>
+      <c r="T1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1" t="s">
+        <v>305</v>
+      </c>
+      <c r="V1" t="s">
+        <v>306</v>
+      </c>
+      <c r="W1" t="s">
+        <v>307</v>
+      </c>
+      <c r="X1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12194.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12194.4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1143.9000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="T2" s="1">
+        <v>165.7</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>200</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9898.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9898.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1008.9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>564.6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>464.6</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>200</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8592.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8592.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1406.8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O4" s="1">
+        <v>115</v>
+      </c>
+      <c r="P4" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>347.7</v>
+      </c>
+      <c r="T4" s="1">
+        <v>347.7</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>200</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -43,35 +43,38 @@
   <connection id="8" name="Ingame_Data" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Ingame_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="schema" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="Ingame_Data1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Ingame_Data.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="10" name="schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="Status_Data" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="Status_Data" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="Status_Data1" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="Status_Data1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="Status_Data2" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="Status_Data2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="Status_Data3" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="Status_Data3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Documents\GitHub\Crusaders_Quest_Replica\Assets\Resources\XML\Status_Data.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="15" name="특수 스킬" type="4" refreshedVersion="0" background="1">
+  <connection id="16" name="특수 스킬" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="16" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
+  <connection id="17" name="특수 스킬1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\angdroid\Desktop\특수 스킬.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="329">
   <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,6 +1353,10 @@
   </si>
   <si>
     <t>스테이지 캐릭터 소멸자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무속성저항률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,11 +1476,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1605,9 +1678,9 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema5">
+  <Schema ID="Schema7">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="HeroDatabase">
+      <xsd:element nillable="true" name="IngameDatabase">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="HeroInfo" form="unqualified">
@@ -1622,38 +1695,39 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ringId" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="blockSkill" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spSkill" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxHealth" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinHealth" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentHealth" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AttackPoint" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CriticalRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CriticalMultiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxSpecialPoint" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinSpecialPoint" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentSpecialPoint" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PhysicalDefense" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MagicalDefense" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DamageReduceRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BloodSuckingRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxAccuracy" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinAccuracy" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentAccuracy" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxEvasionRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinEvasionRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentEvasionRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxRange" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinRange" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentRange" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxAttackSpeed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MinAttackSpeed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CurrentAttackSpeed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PhysicalPenetration" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MagicalPenetration" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MoveSpeed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="KnockbackResistance" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TimeAccelerationRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MotionAccelerationRate" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ScaleMultiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="MaxHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="CurrentHealth" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="AttackPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="CriticalRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CriticalMultiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CurrentSpecialPoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="PhysicalDefense" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="MagicalDefense" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="TrueTypeDefense" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="DamageReduceRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BloodSuckingRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CurrentAccuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CurrentEvasionRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CurrentRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="MinAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CurrentAttackSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="PhysicalPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MagicalPenetration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MoveSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="KnockbackResistance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="TimeAccelerationRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MotionAccelerationRate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ScaleMultiplier" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -1665,35 +1739,35 @@
   <Map ID="10" Name="HeroDatabase_맵" RootElement="HeroDatabase" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="17" Name="HeroDatabase_맵1" RootElement="HeroDatabase" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
+  <Map ID="20" Name="IngameDatabase_맵" RootElement="IngameDatabase" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="SkillDatabase_맵" RootElement="SkillDatabase" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="16" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="17" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="16" Name="StatusDatabase_맵" RootElement="StatusDatabase" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="14" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="15" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:E163" tableType="xml" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:E163" tableType="xml" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" connectionId="7">
   <autoFilter ref="A1:E163"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="name" name="용사 이름" dataDxfId="4">
+    <tableColumn id="1" uniqueName="name" name="용사 이름" dataDxfId="25">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="heroClass" name="클래스" dataDxfId="3">
+    <tableColumn id="2" uniqueName="heroClass" name="클래스" dataDxfId="24">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/heroClass" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="blockSkill" name="용사 스킬" dataDxfId="2">
+    <tableColumn id="3" uniqueName="blockSkill" name="용사 스킬" dataDxfId="23">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/blockSkill" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="specialSkill" name="특수 스킬" dataDxfId="1">
+    <tableColumn id="4" uniqueName="specialSkill" name="특수 스킬" dataDxfId="22">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/specialSkill" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="canUse" name="사용 가능 여부" dataDxfId="0">
+    <tableColumn id="5" uniqueName="canUse" name="사용 가능 여부" dataDxfId="21">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/canUse" xmlDataType="boolean"/>
     </tableColumn>
   </tableColumns>
@@ -1702,7 +1776,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="표18" displayName="표18" ref="A1:C58" tableType="xml" totalsRowShown="0" connectionId="17">
   <autoFilter ref="A1:C58"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="SkillName">
@@ -1720,7 +1794,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:AD4" tableType="xml" totalsRowShown="0" connectionId="15">
   <autoFilter ref="A1:AD4"/>
   <tableColumns count="30">
     <tableColumn id="1" uniqueName="id" name="ID">
@@ -1819,131 +1893,134 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:AO4" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:AO4"/>
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:AP4" tableType="xml" totalsRowShown="0" connectionId="9">
+  <autoFilter ref="A1:AP4"/>
+  <tableColumns count="42">
     <tableColumn id="1" uniqueName="id" name="ID">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/id" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="name" name="Name">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/name" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="class" name="Class">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/class" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/class" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="level" name="Lv">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="rare" name="Rare">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/rare" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/rare" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="weaponId" name="무기ID">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/weaponId" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/weaponId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="ringId" name="반지ID">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/ringId" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/ringId" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="blockSkill" name="블록스킬">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/blockSkill" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/blockSkill" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="spSkill" name="특수스킬">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/spSkill" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/spSkill" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="MaxHealth" name="최대 체력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxHealth" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxHealth" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="MinHealth" name="최소 체력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinHealth" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinHealth" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="CurrentHealth" name="현재 체력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentHealth" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentHealth" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="AttackPoint" name="공격력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/AttackPoint" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/AttackPoint" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="CriticalRate" name="치명타율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CriticalRate" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CriticalRate" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="15" uniqueName="CriticalMultiplier" name="치명타 배율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CriticalMultiplier" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CriticalMultiplier" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="MaxSpecialPoint" name="최대SP포인트">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxSpecialPoint" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxSpecialPoint" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" uniqueName="MinSpecialPoint" name="최소SP포인트">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinSpecialPoint" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinSpecialPoint" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="18" uniqueName="CurrentSpecialPoint" name="현재SP포인트">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentSpecialPoint" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentSpecialPoint" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" uniqueName="PhysicalDefense" name="물리방어력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/PhysicalDefense" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/PhysicalDefense" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="20" uniqueName="MagicalDefense" name="마법저항력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MagicalDefense" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="21" uniqueName="DamageReduceRate" name="피해감소율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/DamageReduceRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="22" uniqueName="BloodSuckingRate" name="흡혈율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/BloodSuckingRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="23" uniqueName="MaxAccuracy" name="최대명중률">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxAccuracy" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="24" uniqueName="MinAccuracy" name="최소명중률">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinAccuracy" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="25" uniqueName="CurrentAccuracy" name="현재명중률">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentAccuracy" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="26" uniqueName="MaxEvasionRate" name="최대회피율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxEvasionRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="27" uniqueName="MinEvasionRate" name="최소회피율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinEvasionRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="28" uniqueName="CurrentEvasionRate" name="현재회피율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentEvasionRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="29" uniqueName="MaxRange" name="최대사거리">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxRange" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="30" uniqueName="MinRange" name="최소사거리">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinRange" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="31" uniqueName="CurrentRange" name="현재사거리">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentRange" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="32" uniqueName="MaxAttackSpeed" name="최대공격속도">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MaxAttackSpeed" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="33" uniqueName="MinAttackSpeed" name="최소공격속도">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MinAttackSpeed" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="34" uniqueName="CurrentAttackSpeed" name="현재공격속도">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/CurrentAttackSpeed" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="35" uniqueName="PhysicalPenetration" name="물리관통력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/PhysicalPenetration" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="36" uniqueName="MagicalPenetration" name="마법관통력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MagicalPenetration" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="37" uniqueName="MoveSpeed" name="이동속도">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MoveSpeed" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="38" uniqueName="KnockbackResistance" name="넉백저항력">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/KnockbackResistance" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="39" uniqueName="TimeAccelerationRate" name="시간가속율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/TimeAccelerationRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="40" uniqueName="MotionAccelerationRate" name="모션가속율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/MotionAccelerationRate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="41" uniqueName="ScaleMultiplier" name="크기배율">
-      <xmlColumnPr mapId="17" xpath="/HeroDatabase/HeroInfo/ScaleMultiplier" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MagicalDefense" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="TrueTypeDefense" name="무속성저항률">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/TrueTypeDefense" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="DamageReduceRate" name="피해감소율" dataDxfId="20">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/DamageReduceRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="BloodSuckingRate" name="흡혈율" dataDxfId="19">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/BloodSuckingRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="MaxAccuracy" name="최대명중률" dataDxfId="18">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="MinAccuracy" name="최소명중률" dataDxfId="17">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="CurrentAccuracy" name="현재명중률" dataDxfId="16">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="MaxEvasionRate" name="최대회피율" dataDxfId="15">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="MinEvasionRate" name="최소회피율" dataDxfId="14">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="CurrentEvasionRate" name="현재회피율" dataDxfId="13">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="MaxRange" name="최대사거리" dataDxfId="12">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="MinRange" name="최소사거리" dataDxfId="11">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="CurrentRange" name="현재사거리" dataDxfId="10">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="MaxAttackSpeed" name="최대공격속도" dataDxfId="9">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxAttackSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="MinAttackSpeed" name="최소공격속도" dataDxfId="8">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinAttackSpeed" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="CurrentAttackSpeed" name="현재공격속도" dataDxfId="7">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentAttackSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="PhysicalPenetration" name="물리관통력" dataDxfId="6">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/PhysicalPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="MagicalPenetration" name="마법관통력" dataDxfId="5">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MagicalPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="MoveSpeed" name="이동속도" dataDxfId="4">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MoveSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="KnockbackResistance" name="넉백저항력" dataDxfId="3">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/KnockbackResistance" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="TimeAccelerationRate" name="시간가속율" dataDxfId="2">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/TimeAccelerationRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="41" uniqueName="MotionAccelerationRate" name="모션가속율" dataDxfId="1">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MotionAccelerationRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="42" uniqueName="ScaleMultiplier" name="크기배율" dataDxfId="0">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/ScaleMultiplier" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5493,21 +5570,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="11" width="11" customWidth="1"/>
     <col min="12" max="14" width="11.625" customWidth="1"/>
@@ -5516,16 +5593,17 @@
     <col min="19" max="21" width="11.75" customWidth="1"/>
     <col min="22" max="22" width="11.625" customWidth="1"/>
     <col min="23" max="27" width="11.75" customWidth="1"/>
-    <col min="28" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="15.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.75" customWidth="1"/>
     <col min="32" max="34" width="13.625" customWidth="1"/>
     <col min="35" max="36" width="11.75" customWidth="1"/>
     <col min="37" max="37" width="10" customWidth="1"/>
     <col min="38" max="40" width="11.75" customWidth="1"/>
     <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -5587,70 +5665,73 @@
         <v>304</v>
       </c>
       <c r="U1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" t="s">
         <v>305</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>306</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>307</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>308</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>309</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>310</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>311</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>312</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>313</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>314</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>315</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>316</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>317</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>318</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>319</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>320</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>321</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>322</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>323</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>324</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>270</v>
       </c>
@@ -5678,104 +5759,107 @@
       <c r="I2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="9">
         <v>12194.4</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
         <v>12194.4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>1143.9000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="9">
         <v>24.2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="9">
         <v>100</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="9">
         <v>100</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9">
         <v>1132.9000000000001</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="9">
         <v>165.7</v>
       </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
         <v>200</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
         <v>15</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="9">
         <v>75</v>
       </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="9">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="9">
         <v>2</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="9">
         <v>0.5</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="9">
         <v>1</v>
       </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AJ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="9">
         <v>50</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AN2" s="9">
         <v>1</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="9">
         <v>1</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AP2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
@@ -5803,104 +5887,107 @@
       <c r="I3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
         <v>9898.5</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
         <v>9898.5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="9">
         <v>1008.9</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="9">
         <v>21.7</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="9">
         <v>105</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="9">
         <v>100</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
         <v>564.6</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="9">
         <v>464.6</v>
       </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
         <v>200</v>
       </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
         <v>15</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="9">
         <v>75</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="9">
         <v>15</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="9">
         <v>3</v>
       </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="9">
         <v>2</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="9">
         <v>0.5</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="9">
         <v>1</v>
       </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9">
         <v>1</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="9">
         <v>1</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>280</v>
       </c>
@@ -5928,100 +6015,103 @@
       <c r="I4" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>8592.4</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
         <v>8592.4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="9">
         <v>1406.8</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="9">
         <v>39.299999999999997</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="9">
         <v>115</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="9">
         <v>100</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
         <v>347.7</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="9">
         <v>347.7</v>
       </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
         <v>200</v>
       </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
         <v>16</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="9">
         <v>75</v>
       </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
         <v>14</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="9">
         <v>5</v>
       </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AE4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
         <v>2</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="9">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="9">
         <v>1</v>
       </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
+      <c r="AJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9">
         <v>1</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="9">
         <v>1</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/XML/Hero_Data.xml.xlsx
+++ b/Assets/Resources/XML/Hero_Data.xml.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="28560" windowHeight="13230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="메모장" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="특수 스킬 리스트" sheetId="2" r:id="rId3"/>
     <sheet name="캐릭터 정보" sheetId="3" r:id="rId4"/>
     <sheet name="인게임데이터" sheetId="4" r:id="rId5"/>
+    <sheet name="스테이지 명" sheetId="6" r:id="rId6"/>
+    <sheet name="웨이브 차수" sheetId="8" r:id="rId7"/>
+    <sheet name="몬스터 정보" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="348">
   <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,6 +1360,82 @@
   </si>
   <si>
     <t>무속성저항률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허수아비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망의 탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망레온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망시구르나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망마리아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1562,70 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="49">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1752,22 +1894,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:E163" tableType="xml" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:E163" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" connectionId="7">
   <autoFilter ref="A1:E163"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="name" name="용사 이름" dataDxfId="25">
+    <tableColumn id="1" uniqueName="name" name="용사 이름" dataDxfId="46">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="heroClass" name="클래스" dataDxfId="24">
+    <tableColumn id="2" uniqueName="heroClass" name="클래스" dataDxfId="45">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/heroClass" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="blockSkill" name="용사 스킬" dataDxfId="23">
+    <tableColumn id="3" uniqueName="blockSkill" name="용사 스킬" dataDxfId="44">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/blockSkill" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="specialSkill" name="특수 스킬" dataDxfId="22">
+    <tableColumn id="4" uniqueName="specialSkill" name="특수 스킬" dataDxfId="43">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/specialSkill" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="canUse" name="사용 가능 여부" dataDxfId="21">
+    <tableColumn id="5" uniqueName="canUse" name="사용 가능 여부" dataDxfId="42">
       <xmlColumnPr mapId="10" xpath="/HeroDatabase/list/HeroInfo/canUse" xmlDataType="boolean"/>
     </tableColumn>
   </tableColumns>
@@ -1894,6 +2036,141 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:AP4" tableType="xml" totalsRowShown="0" connectionId="9">
+  <autoFilter ref="A1:AP4"/>
+  <tableColumns count="42">
+    <tableColumn id="1" uniqueName="id" name="ID">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="name" name="Name">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="class" name="Class">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="level" name="Lv">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/level" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="rare" name="Rare">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/rare" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="weaponId" name="무기ID">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/weaponId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="ringId" name="반지ID">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/ringId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="blockSkill" name="블록스킬">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/blockSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="spSkill" name="특수스킬">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/spSkill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="MaxHealth" name="최대 체력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxHealth" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="MinHealth" name="최소 체력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinHealth" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="CurrentHealth" name="현재 체력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentHealth" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="AttackPoint" name="공격력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/AttackPoint" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="CriticalRate" name="치명타율">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CriticalRate" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="CriticalMultiplier" name="치명타 배율">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CriticalMultiplier" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="MaxSpecialPoint" name="최대SP포인트">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxSpecialPoint" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="MinSpecialPoint" name="최소SP포인트">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinSpecialPoint" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="CurrentSpecialPoint" name="현재SP포인트">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentSpecialPoint" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="PhysicalDefense" name="물리방어력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/PhysicalDefense" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="MagicalDefense" name="마법저항력">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MagicalDefense" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="TrueTypeDefense" name="무속성저항률">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/TrueTypeDefense" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="DamageReduceRate" name="피해감소율" dataDxfId="41">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/DamageReduceRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="BloodSuckingRate" name="흡혈율" dataDxfId="40">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/BloodSuckingRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="MaxAccuracy" name="최대명중률" dataDxfId="39">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="MinAccuracy" name="최소명중률" dataDxfId="38">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="CurrentAccuracy" name="현재명중률" dataDxfId="37">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentAccuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="MaxEvasionRate" name="최대회피율" dataDxfId="36">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="MinEvasionRate" name="최소회피율" dataDxfId="35">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="CurrentEvasionRate" name="현재회피율" dataDxfId="34">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentEvasionRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="MaxRange" name="최대사거리" dataDxfId="33">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="MinRange" name="최소사거리" dataDxfId="32">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="CurrentRange" name="현재사거리" dataDxfId="31">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentRange" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="MaxAttackSpeed" name="최대공격속도" dataDxfId="30">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MaxAttackSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="MinAttackSpeed" name="최소공격속도" dataDxfId="29">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MinAttackSpeed" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="CurrentAttackSpeed" name="현재공격속도" dataDxfId="28">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/CurrentAttackSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="PhysicalPenetration" name="물리관통력" dataDxfId="27">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/PhysicalPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="MagicalPenetration" name="마법관통력" dataDxfId="26">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MagicalPenetration" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="MoveSpeed" name="이동속도" dataDxfId="25">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MoveSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="KnockbackResistance" name="넉백저항력" dataDxfId="24">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/KnockbackResistance" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="TimeAccelerationRate" name="시간가속율" dataDxfId="23">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/TimeAccelerationRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="41" uniqueName="MotionAccelerationRate" name="모션가속율" dataDxfId="22">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/MotionAccelerationRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="42" uniqueName="ScaleMultiplier" name="크기배율" dataDxfId="21">
+      <xmlColumnPr mapId="20" xpath="/IngameDatabase/HeroInfo/ScaleMultiplier" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표3_5" displayName="표3_5" ref="A1:AP4" tableType="xml" totalsRowShown="0" connectionId="9">
   <autoFilter ref="A1:AP4"/>
   <tableColumns count="42">
     <tableColumn id="1" uniqueName="id" name="ID">
@@ -5572,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6122,4 +6399,742 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="18" width="13.875" customWidth="1"/>
+    <col min="19" max="21" width="11.75" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="27" width="11.75" customWidth="1"/>
+    <col min="28" max="30" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.75" customWidth="1"/>
+    <col min="32" max="34" width="13.625" customWidth="1"/>
+    <col min="35" max="36" width="11.75" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="40" width="11.75" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" t="s">
+        <v>256</v>
+      </c>
+      <c r="U1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="9">
+        <v>12194.4</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>12194.4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1143.9000000000001</v>
+      </c>
+      <c r="N2" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="O2" s="9">
+        <v>100</v>
+      </c>
+      <c r="P2" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="T2" s="9">
+        <v>165.7</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>75</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="9">
+        <v>9898.5</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>9898.5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1008.9</v>
+      </c>
+      <c r="N3" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="O3" s="9">
+        <v>105</v>
+      </c>
+      <c r="P3" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>564.6</v>
+      </c>
+      <c r="T3" s="9">
+        <v>464.6</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>200</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8592.4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>8592.4</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1406.8</v>
+      </c>
+      <c r="N4" s="9">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O4" s="9">
+        <v>115</v>
+      </c>
+      <c r="P4" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>347.7</v>
+      </c>
+      <c r="T4" s="9">
+        <v>347.7</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>